--- a/biology/Biologie cellulaire et moléculaire/Liste_d'espèces_dont_le_génome_est_séquencé/Liste_d'espèces_dont_le_génome_est_séquencé.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Liste_d'espèces_dont_le_génome_est_séquencé/Liste_d'espèces_dont_le_génome_est_séquencé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+          <t>Liste_d'espèces_dont_le_génome_est_séquencé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste ci-dessous, non exhaustive, présente des espèces dont le génome a été complètement séquencé à la date du 12 février 2016.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+          <t>Liste_d'espèces_dont_le_génome_est_séquencé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Projets de séquençage globaux, voire de tout le Vivant dans le monde</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après que ce travail ait été fait (en 30 ans environ) chez l'Homme, il existe plusieurs projets visant à séquencer le génome d'un grand nombre d'espèces de quelques groupes taxonomiques[1] :
-le projet Genoma 10K veut séquencer 10 000 génomes de vertébrés (environ pour chaque genre)[1] ;
-le projet I5K souhaite déchiffrer le génome de 5000 arthropodes[1] ;
-le projet B10K voudrait déchiffrer les génomes de chacune des environ 10 500 espèces d'oiseaux[1].
-Et un autre projet, bien plus ambitieux encore (« Earth BioGenome Project » ou EBP, préparé depuis 2015 et présenté au BioGenomics2017 lors d'une réunion organisée par l'Initiative du Smithsonian sur la génomique de la biodiversité), vise à séquencer l'ensemble des espèces connues de la planète[1]. Selon ses auteurs cela coûterait plusieurs milliards de dollars, mais pas plus que la somme dépensée pour financer l'ensemble des démarches effectuées pour séquencer le génome humain[1]. 
-L'EBP pourrait inclure les projets cités plus haut, mais plusieurs défis sont à relever : outre que le budget d'un tel projet serait sans doute plus difficile à réunir que celui qui a été  nécessaire pour étudier le génome humain, il faudrait aussi trouver de l'ADN de qualité pour chaque échantillon à analyser, et l'associer à des métadonnées que les musées ne possèdent pas toujours (lieu exact du prélèvement, description fine de l'organisme, etc.)[1]. Des normes d'échantillonnage seraient à mettre en place avant l'opération. 
-Le Global Genome Biodiversity Network pourrait fournir à partir du réseau des muséums et banques biologiques une partie de l'ADN nécessaire, mais dans bien des cas il faudrait retourner dans la nature retrouver des spécimens vivants et en rapporter des biopsies ou sources d'ADN convenablement préparées pour ne pas contaminer les échantillons[1]. C'est un travail qui pourrait être plus couteux que les analyses génétique elles-mêmes[1].  Harris Lewin (spécialiste en génomique évolutionniste de l'Université de Californie estime qu'une première étape vers cet objectif audacieux serait l'analyse génomique précise d'un membre de chaque famille d'eucaryote (environ 9000 en tout comprenant des plantes, des animaux et des organismes unicellulaires). Ensuite un séquençage moins précis pourrait concerner une espèce choisie dans chacun des 150 000 à 200 000 genres, et enfin porter via un séquençage à basse résolution sur une partie du génome des 1,5 million d'espèces eucaryotes connues restant (avec possibilité d'affiner le séquençage pour des espèces d'intérêt particulier). 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après que ce travail ait été fait (en 30 ans environ) chez l'Homme, il existe plusieurs projets visant à séquencer le génome d'un grand nombre d'espèces de quelques groupes taxonomiques :
+le projet Genoma 10K veut séquencer 10 000 génomes de vertébrés (environ pour chaque genre) ;
+le projet I5K souhaite déchiffrer le génome de 5000 arthropodes ;
+le projet B10K voudrait déchiffrer les génomes de chacune des environ 10 500 espèces d'oiseaux.
+Et un autre projet, bien plus ambitieux encore (« Earth BioGenome Project » ou EBP, préparé depuis 2015 et présenté au BioGenomics2017 lors d'une réunion organisée par l'Initiative du Smithsonian sur la génomique de la biodiversité), vise à séquencer l'ensemble des espèces connues de la planète. Selon ses auteurs cela coûterait plusieurs milliards de dollars, mais pas plus que la somme dépensée pour financer l'ensemble des démarches effectuées pour séquencer le génome humain. 
+L'EBP pourrait inclure les projets cités plus haut, mais plusieurs défis sont à relever : outre que le budget d'un tel projet serait sans doute plus difficile à réunir que celui qui a été  nécessaire pour étudier le génome humain, il faudrait aussi trouver de l'ADN de qualité pour chaque échantillon à analyser, et l'associer à des métadonnées que les musées ne possèdent pas toujours (lieu exact du prélèvement, description fine de l'organisme, etc.). Des normes d'échantillonnage seraient à mettre en place avant l'opération. 
+Le Global Genome Biodiversity Network pourrait fournir à partir du réseau des muséums et banques biologiques une partie de l'ADN nécessaire, mais dans bien des cas il faudrait retourner dans la nature retrouver des spécimens vivants et en rapporter des biopsies ou sources d'ADN convenablement préparées pour ne pas contaminer les échantillons. C'est un travail qui pourrait être plus couteux que les analyses génétique elles-mêmes.  Harris Lewin (spécialiste en génomique évolutionniste de l'Université de Californie estime qu'une première étape vers cet objectif audacieux serait l'analyse génomique précise d'un membre de chaque famille d'eucaryote (environ 9000 en tout comprenant des plantes, des animaux et des organismes unicellulaires). Ensuite un séquençage moins précis pourrait concerner une espèce choisie dans chacun des 150 000 à 200 000 genres, et enfin porter via un séquençage à basse résolution sur une partie du génome des 1,5 million d'espèces eucaryotes connues restant (avec possibilité d'affiner le séquençage pour des espèces d'intérêt particulier). 
 Selon ses auteurs un parallèle peut être fait entre ce projet d'EBP et le Human Genome Project qui il y a trois décennies était tout aussi ambitieux, controversé et, à l'époque « techniquement impossible », mais qui a néanmoins abouti et qui est devenu la base d'une industrie valant aujourd'hui environ 20 milliards de dollars.
 </t>
         </is>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+          <t>Liste_d'espèces_dont_le_génome_est_séquencé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,16 +565,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Epsilonproteobacteria
-Campylobacter jejuni[2]. Souche NCTC11168. Génome publié dans EMBL :
+          <t>Epsilonproteobacteria</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Campylobacter jejuni. Souche NCTC11168. Génome publié dans EMBL :
 Identifiant (ID): CJ11168
 Numéro d'accès (accession number): AL111168
-Helicobacter hepaticus[3]. Souche ATCC51449. Publié dans GenBank, numéro d'accès: AE017125. Voir aussi www.THE-MWG.com.
-Helicobacter pylori[4]
+Helicobacter hepaticus. Souche ATCC51449. Publié dans GenBank, numéro d'accès: AE017125. Voir aussi www.THE-MWG.com.
+Helicobacter pylori
 Thimicrospira denitrificans
 Wollinella succinogenes
-[réf. nécessaire]
-Deltaproteobacteria
+[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_dont_le_génome_est_séquencé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Eubacteria</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Deltaproteobacteria</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anaeromyxobacter dehalogenans
 Bdellovibrio bacteriovorus
 Desulfotalea psychrophila
@@ -570,8 +624,43 @@
 Geobacter metallireducen
 Geobacter sulfurreducens
 Pelobacter carbinolicus
-[réf. nécessaire]
-Alphaproteobacteria
+[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_dont_le_génome_est_séquencé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Eubacteria</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alphaproteobacteria</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Agrobacterium tumefaciens
 Anaplasma marginale
 Bartonella henselae
@@ -603,8 +692,43 @@
 Sphingopyxis alaskensis
 Wolbachia pipientis
 Zymomonas mobilis
-[réf. nécessaire]
-Betaproteobacteria
+[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_dont_le_génome_est_séquencé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Eubacteria</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Betaproteobacteria</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Azoarcus
 Bordetella bronchiseptica
 Bordetella parapertussis
@@ -633,60 +757,67 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_d%27esp%C3%A8ces_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_dont_le_génome_est_séquencé</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Archaea</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_d%27esp%C3%A8ces_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_dont_le_génome_est_séquencé</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Eukaryota</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Plantes
-Quelques éléments de la Liste d'espèces de plantes dont le génome est séquencé:
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Quelques éléments de la Liste d'espèces de plantes dont le génome est séquencé:
 L'arabette des dames : Arabidopsis thaliana, une plante modèle (premier séquençage complet du règne végétal, terminé en 2000)
 Le riz asiatique : Oryza sativa
 Le blé tendre : Triticum aestivum
@@ -701,84 +832,152 @@
 Le pêcher : Prunus persica
 Le rosier : voir génome de la rose
 Le papayer: Carica papaya
-Le tournesol: Helianthus annuus
-Champignon
-Armillaria mellea
+Le tournesol: Helianthus annuus</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_dont_le_génome_est_séquencé</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Eukaryota</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Champignon</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Armillaria mellea
 Glarea lozoyensis
 Heterobasidion irregulare
 Magnaporthe grisea
-Saccharomyces cerevisiae
-Insectes
-Coleoptera
-Agrilus planipennis, agrile du frêne (2014)[5]
-Dendroctonus ponderosae, dendroctone du pin ponderosa (2013)[6]
-Tribolium castaneum, tribolium rouge de la farine (2008)[7]
+Saccharomyces cerevisiae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_dont_le_génome_est_séquencé</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Eukaryota</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coleoptera
+Agrilus planipennis, agrile du frêne (2014)
+Dendroctonus ponderosae, dendroctone du pin ponderosa (2013)
+Tribolium castaneum, tribolium rouge de la farine (2008)
 Diptera
 Culicidae
-Aedes aegypti, moustique (2007)[8]
-Anopheles albimanus, moustique (2014)[5]
-Anopheles arabiensis, moustique (2014)[5]
-Anopheles atroparvus, moustique (2013)[5]
-Anopheles christyi, moustique (2014)[5]
-Anopheles culicifacies, moustique (2014)[5]
-Anopheles darlingi, moustique (2013)[9]
-Anopheles dirus, moustique (2014)[5]
-Anopheles epiroticus, moustique (2013)[5]
-Anopheles farauti, moustique (2014)[5]
-Anopheles funestus, moustique (2006) [10]
-Anopheles gambiae, moustique (2002)[11]
-Anopheles maculatus, moustique (2013)[5]
-Anopheles melas, moustique (2014)[5]
-Anopheles merus, moustique (2014)[5]
-Anopheles minimus, moustique (2014)[5]
-Anopheles nili, moustique (2011)[12]
-Anopheles quadriannulatus, moustique (2014)[5]
-Anopheles sinensis, moustique (2014)[13]
-Anopheles stephensi, moustique (2014)[14]
-Culex quinquefasciatus, moustique (2010)[15]
+Aedes aegypti, moustique (2007)
+Anopheles albimanus, moustique (2014)
+Anopheles arabiensis, moustique (2014)
+Anopheles atroparvus, moustique (2013)
+Anopheles christyi, moustique (2014)
+Anopheles culicifacies, moustique (2014)
+Anopheles darlingi, moustique (2013)
+Anopheles dirus, moustique (2014)
+Anopheles epiroticus, moustique (2013)
+Anopheles farauti, moustique (2014)
+Anopheles funestus, moustique (2006) 
+Anopheles gambiae, moustique (2002)
+Anopheles maculatus, moustique (2013)
+Anopheles melas, moustique (2014)
+Anopheles merus, moustique (2014)
+Anopheles minimus, moustique (2014)
+Anopheles nili, moustique (2011)
+Anopheles quadriannulatus, moustique (2014)
+Anopheles sinensis, moustique (2014)
+Anopheles stephensi, moustique (2014)
+Culex quinquefasciatus, moustique (2010)
 Psychodidae
-Clogmia albipunctata, moucheron (2013)[15]
+Clogmia albipunctata, moucheron (2013)
 Drosophilidae
-Drosophila ananassae, drosophile (2007)[16]
-Drosophila biarmipes, drosophile (2011)[17]
-Drosophila bipectinata, drosophile (2011)[17]
-Drosophila erecta, drosophile (2007)[16]
-Drosophila elegans, drosophile (2011)[17]
-Drosophila eugracilis, drosophile (2011)[17]
-Drosophila ficusphila, drosophile (2011)[17]
-Drosophila grimshawi, drosophile (2007)[16]
-Drosophila kikkawai, drosophile (2011)[17]
-Drosophila melanogaster, drosophile  (2000)[18]
-Drosophila mojavensis, drosophile (2007)[16]
-Drosophila persimilis, drosophile (2007)[16]
-Drosophila pseudoobscura, drosophile (2005)[19]
-Drosophila rhopaloa, drosophile (2011)[17]
-Drosophila santomea, drosophile [20]
-Drosophila sechellia, drosophile (2007)[16]
-Drosophila simulans, drosophile (2007)[16]
-Drosophila takahashi, drosophile (2011)[17]
-Drosophila virilis, drosophile (2007)[16]
-Drosophila willistoni, drosophile (2007)[16]
-Drosophila yakuba, drosophile (2007)[16]
+Drosophila ananassae, drosophile (2007)
+Drosophila biarmipes, drosophile (2011)
+Drosophila bipectinata, drosophile (2011)
+Drosophila erecta, drosophile (2007)
+Drosophila elegans, drosophile (2011)
+Drosophila eugracilis, drosophile (2011)
+Drosophila ficusphila, drosophile (2011)
+Drosophila grimshawi, drosophile (2007)
+Drosophila kikkawai, drosophile (2011)
+Drosophila melanogaster, drosophile  (2000)
+Drosophila mojavensis, drosophile (2007)
+Drosophila persimilis, drosophile (2007)
+Drosophila pseudoobscura, drosophile (2005)
+Drosophila rhopaloa, drosophile (2011)
+Drosophila santomea, drosophile 
+Drosophila sechellia, drosophile (2007)
+Drosophila simulans, drosophile (2007)
+Drosophila takahashi, drosophile (2011)
+Drosophila virilis, drosophile (2007)
+Drosophila willistoni, drosophile (2007)
+Drosophila yakuba, drosophile (2007)
 Syrphidae
-Episyrphus balteatus, syrphe (2011)[21]
+Episyrphus balteatus, syrphe (2011)
 Phoridae
-Megaselia abdita, mouche phoride (2013)[22]
+Megaselia abdita, mouche phoride (2013)
 Hemiptera
-Acyrthosiphon pisum, puceron du pois (2010)[23]
+Acyrthosiphon pisum, puceron du pois (2010)
 Hymenoptera
 Formicidae
-Acromyrmex echinatior fourmis (2011)[24]
-Atta cephalotes, fourmis (2011)[25]
+Acromyrmex echinatior fourmis (2011)
+Atta cephalotes, fourmis (2011)
 Atta colombica, fourmis (2012)
-Camponotus floridanus, fourmis (2010)[26]
+Camponotus floridanus, fourmis (2010)
 Cardiocondyla obscurior, fourmis (2012)
 Cyphomyrmex costatus, fourmis (2011)
 Formica selysi, fourmis (2012)
-Harpegnathos saltator, fourmis (2010)[26]
+Harpegnathos saltator, fourmis (2010)
 Lasius flavus, fourmis (2019)
 Lasius niger, fourmis (2019)
-Linepithema humile, fourmis (2011)[27]
+Linepithema humile, fourmis (2011)
 Monomorium pharaonis, fourmis
 Myrmecia crosslandi, fourmis
 Myrmecia pilosula, fourmis
@@ -789,59 +988,244 @@
 Pogonomyrmex barbatus, fourmis (2011)
 Pogonomyrmex colei, fourmis (2015)
 Pseudomyrmex gracilis, fourmis
-Solenopsis invicta, fourmis (2011)[28],[29]
+Solenopsis invicta, fourmis (2011),
 Tetramorium caespitum, fourmis (2015)
 Trachymyrmex septentrionalis, fourmis
 Vollenhovia emeryi, fourmis (2015)
 Vollenhovia nipponica, fourmis (2015)
 Apidae
-Apis mellifera, abeille domestique (2006)[30]
+Apis mellifera, abeille domestique (2006)
 Pteromalidae
-Nasonia giraulti, guêpe parasitoïde (2010)[31]
-Nasonia longicornis, guêpe parasitoïde (2010)[31]
-Nasonia vitripennis, guêpe parasitoïde (2010)[31]
+Nasonia giraulti, guêpe parasitoïde (2010)
+Nasonia longicornis, guêpe parasitoïde (2010)
+Nasonia vitripennis, guêpe parasitoïde (2010)
 Lepidoptera
 Bombycidae
-Bombyx mori, ver à soie (2004)[32]
+Bombyx mori, ver à soie (2004)
 Nymphalidae
-Danaus plexippus, monarque (2011)[33]
+Danaus plexippus, monarque (2011)
 Heliconius melpomene, héliconie (2012)
 Plutellidae
-Plutella xylostella, Teigne des crucifères (2013)[34]
+Plutella xylostella, Teigne des crucifères (2013)
 Phthiraptera
 Pediculidae
-Pediculus humanus, pou (2010)[35]
-Autres Invertébrés
-L'oursin Arbacia punctulata
-Le ver nématode Caenorhabditis elegans
-Vertébrés
-Poissons
-Le poisson médaka : Oryzias latipes
+Pediculus humanus, pou (2010)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_dont_le_génome_est_séquencé</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Eukaryota</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autres Invertébrés</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>L'oursin Arbacia punctulata
+Le ver nématode Caenorhabditis elegans</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_dont_le_génome_est_séquencé</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Eukaryota</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Vertébrés</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Poissons</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poisson médaka : Oryzias latipes
 Le poisson fugu Takifugu rubipres
 Le poisson zèbre : Danio rerio
 Le poisson tétraodon Tetraodon nigroviridis
 La morue de l'atlantique : Gadus morhua
-Le killi turquoise : Nothobranchius furzeri [36]
-Reptiles
-Batraciens
-Le crapaud xénope : Xenopus laevis
-Oiseaux
-Le coq bankiva ou sauvage : Gallus gallus
-Le poulet domestique : Gallus gallus domesticus[37]
-La dinde : Meleagris[37]
-La perruche ondulée : Melopsittacus undulatus[37]
-Le diamant mandarin : Taeniopygia guttata[37]
-Le pigeon biset : Columba livia[37]
-Mammifères
-L'humain : Homo sapiens ; voir Projet génome humain abouti en 2003
+Le killi turquoise : Nothobranchius furzeri </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_dont_le_génome_est_séquencé</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Eukaryota</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Vertébrés</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Batraciens</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Le crapaud xénope : Xenopus laevis</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_dont_le_génome_est_séquencé</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Eukaryota</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Vertébrés</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Le coq bankiva ou sauvage : Gallus gallus
+Le poulet domestique : Gallus gallus domesticus
+La dinde : Meleagris
+La perruche ondulée : Melopsittacus undulatus
+Le diamant mandarin : Taeniopygia guttata
+Le pigeon biset : Columba livia</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_dont_le_génome_est_séquencé</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Eukaryota</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Vertébrés</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>L'humain : Homo sapiens ; voir Projet génome humain abouti en 2003
 La souris grise : Mus musculus
 Le rat surmulot : Rattus norvegicus
 Le chimpanzé : Pan troglodytes
 Le macaque rhésus : Macaca mulatta
 Le chat domestique : Felis silvestris catus
 L'ornithorynque : Ornithorhynchus anatinus
-Le taureau : Bos Taurus[38]
-Le cheval : Equus Caballus[39]
+Le taureau : Bos Taurus
+Le cheval : Equus Caballus
 Le gorille : Gorilla gorilla
 Le chameau de Bactriane : Camelus bactrianus</t>
         </is>
